--- a/heliostrome/jip_project/results/sensitivity_Bangladesh_initWC.xlsx
+++ b/heliostrome/jip_project/results/sensitivity_Bangladesh_initWC.xlsx
@@ -926,10 +926,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2114,10 +2112,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3302,10 +3298,8 @@
       <c r="M8" t="n">
         <v>35.18</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>54-238</t>
-        </is>
+      <c r="N8" t="n">
+        <v>238</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
